--- a/documents/Rozvrh-hodin-Reformery-od-září-2023.xlsx
+++ b/documents/Rozvrh-hodin-Reformery-od-září-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C9650B-0649-48F6-AF39-EE59D4AA863A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB07FA18-3FD4-4F12-B55A-4A8BEF16E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9B17290C-A649-439F-8DEE-7D24C6CDFDCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B5AE5A3-63EF-4738-B7A3-D1F2FE49A785}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Rozvrh lekcí tělocvična s Reformery</t>
   </si>
@@ -99,6 +99,9 @@
     <t>Helena</t>
   </si>
   <si>
+    <t>Marika</t>
+  </si>
+  <si>
     <t>St</t>
   </si>
   <si>
@@ -126,7 +129,13 @@
     <t>Pá</t>
   </si>
   <si>
+    <t>11:15 - 12:15  Soukromá lekce Zuzka</t>
+  </si>
+  <si>
     <t>So</t>
+  </si>
+  <si>
+    <t>9:30 10:30  Marika</t>
   </si>
   <si>
     <t>10:30 - 11:30 Helena</t>
@@ -244,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -414,6 +423,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -479,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,14 +538,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -847,11 +870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519EAF73-1876-4FC2-A967-8BC0F66AB86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D9809-0965-4B31-BB92-222D6CA8109F}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -935,11 +958,11 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -967,21 +990,20 @@
         <v>21</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.5">
       <c r="A6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14" t="s">
@@ -1005,30 +1027,32 @@
         <v>14</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="74" x14ac:dyDescent="0.5">
       <c r="A7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="14" t="s">
@@ -1039,9 +1063,9 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="30.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.5">
       <c r="A8" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="13" t="s">
@@ -1050,12 +1074,14 @@
       <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="14"/>
@@ -1065,12 +1091,14 @@
     </row>
     <row r="9" spans="1:12" ht="30.5" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -1078,61 +1106,61 @@
       <c r="H9" s="14"/>
       <c r="I9" s="17"/>
       <c r="J9" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="A10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="24"/>
+      <c r="A11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="11" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" s="28" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" s="28" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" s="28" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" s="29" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" s="29" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" s="29" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{3972410A-A3FA-48AC-9C80-2AB558812EF7}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{9D31F10A-2498-462D-BDCE-BF327712FD9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
